--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/ALABAMA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/ALABAMA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1091"/>
+  <dimension ref="A1:D1085"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C33">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C57">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C90">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C91">
@@ -1899,7 +1899,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C116">
@@ -2034,7 +2034,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2091,7 +2091,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C130">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C145">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C155">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C161">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C162">
@@ -2642,12 +2642,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C172">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C176">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C179">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C183">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C185">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C196">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C206">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C214">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C216">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C229">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C236">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C248">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C256">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C266">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C270">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C272">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C274">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C275">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C279">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C284">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C287">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C296">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C301">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C305">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C312">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C315">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C333">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C335">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C339">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C354">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C358">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C363">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C366">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C371">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C375">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C378">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C382">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C389">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C396">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C398">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C399">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C402">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C406">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C407">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C411">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C416">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C418">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C420">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C423">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C426">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C428">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C430">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C434">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C442">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C445">
@@ -7131,7 +7131,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C515">
@@ -7500,7 +7500,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C543">
@@ -7526,7 +7526,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C545">
@@ -7661,7 +7661,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C555">
@@ -7726,7 +7726,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C560">
@@ -7913,7 +7913,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C574">
@@ -7952,7 +7952,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C577">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C580">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C587">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C592">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C597">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C601">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C604">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C617">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C626">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C636">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C643">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C667">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C698">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C709">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C714">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C715">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C727">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C728">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C741">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C744">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C754">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C765">
@@ -10471,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C770">
@@ -10497,7 +10497,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C772">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C773">
@@ -10562,7 +10562,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C777">
@@ -10601,7 +10601,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C780">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C784">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C793">
@@ -10801,7 +10801,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C795">
@@ -10853,7 +10853,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C799">
@@ -10866,7 +10866,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C800">
@@ -10905,7 +10905,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C803">
@@ -10944,7 +10944,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C806">
@@ -11032,7 +11032,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C812">
@@ -11084,7 +11084,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C816">
@@ -11188,7 +11188,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C824">
@@ -11234,7 +11234,7 @@
         <v>71</v>
       </c>
       <c r="D827">
-        <v>0.009290761580738027</v>
+        <v>0.009290761580738029</v>
       </c>
     </row>
     <row r="828">
@@ -11266,7 +11266,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C830">
@@ -11318,7 +11318,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C834">
@@ -11344,7 +11344,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C836">
@@ -11422,7 +11422,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C842">
@@ -11461,7 +11461,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C845">
@@ -11474,7 +11474,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C846">
@@ -11487,7 +11487,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C847">
@@ -11879,7 +11879,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C876">
@@ -12196,7 +12196,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C900">
@@ -12383,7 +12383,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C914">
@@ -12422,7 +12422,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C917">
@@ -12570,7 +12570,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C928">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C931">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C940">
@@ -12778,7 +12778,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C944">
@@ -12804,7 +12804,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C946">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C957">
@@ -13129,7 +13129,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C971">
@@ -13142,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C972">
@@ -13155,7 +13155,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C973">
@@ -13168,7 +13168,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C974">
@@ -13181,7 +13181,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C975">
@@ -13272,7 +13272,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C982">
@@ -13324,7 +13324,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C986">
@@ -13389,7 +13389,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C991">
@@ -13415,7 +13415,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C993">
@@ -13454,7 +13454,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C996">
@@ -13480,7 +13480,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C998">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1007">
@@ -13610,7 +13610,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1008">
@@ -13649,7 +13649,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1011">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1017">
@@ -13740,7 +13740,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1018">
@@ -14091,7 +14091,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1045">
@@ -14569,7 +14569,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1081">
@@ -14629,41 +14629,6 @@
       </c>
       <c r="D1085">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
